--- a/2023-01/PSE-2023-01-20.xlsx
+++ b/2023-01/PSE-2023-01-20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32224EF-3A15-4CFB-82FF-DB0521CD4495}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD96468-C3A9-4930-9307-FA98F0AED9C9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="796">
   <si>
     <t>2GO</t>
   </si>
@@ -1591,12 +1591,6 @@
   </si>
   <si>
     <t>NRCP</t>
-  </si>
-  <si>
-    <t>NSTAR</t>
-  </si>
-  <si>
-    <t>(N/A)</t>
   </si>
   <si>
     <t>NXGEN</t>
@@ -2846,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8240,69 +8234,69 @@
       <c r="A235" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>522</v>
+      <c r="B235" s="4">
+        <v>7</v>
+      </c>
+      <c r="C235" s="4">
+        <v>7</v>
+      </c>
+      <c r="D235" s="4">
+        <v>7</v>
+      </c>
+      <c r="E235" s="4">
+        <v>7</v>
+      </c>
+      <c r="F235" s="4">
+        <v>0</v>
+      </c>
+      <c r="G235" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="C236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F236" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B236" s="4">
-        <v>7</v>
-      </c>
-      <c r="C236" s="4">
-        <v>7</v>
-      </c>
-      <c r="D236" s="4">
-        <v>7</v>
-      </c>
-      <c r="E236" s="4">
-        <v>7</v>
-      </c>
-      <c r="F236" s="4">
-        <v>0</v>
-      </c>
-      <c r="G236" s="4">
-        <v>0</v>
+      <c r="G236" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B237" s="4">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="C237" s="4">
-        <v>0.31</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D237" s="4">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="E237" s="4">
-        <v>0.31</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>526</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -8310,13 +8304,13 @@
         <v>527</v>
       </c>
       <c r="B238" s="4">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C238" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D238" s="4">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E238" s="4">
         <v>1.0999999999999999E-2</v>
@@ -8325,237 +8319,237 @@
         <v>528</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>104</v>
+        <v>529</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B239" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.83</v>
       </c>
       <c r="C239" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.86</v>
       </c>
       <c r="D239" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.82</v>
       </c>
       <c r="E239" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.84</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B240" s="4">
-        <v>0.83</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="C240" s="4">
-        <v>0.86</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="D240" s="4">
-        <v>0.82</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E240" s="4">
-        <v>0.84</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B241" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C241" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D241" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>1.96</v>
       </c>
       <c r="E241" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>1.96</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B242" s="4">
-        <v>2.0099999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="C242" s="4">
-        <v>2.0099999999999998</v>
+        <v>5.81</v>
       </c>
       <c r="D242" s="4">
-        <v>1.96</v>
+        <v>5.8</v>
       </c>
       <c r="E242" s="4">
-        <v>1.96</v>
+        <v>5.81</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B243" s="4">
-        <v>5.8</v>
+        <v>1.83</v>
       </c>
       <c r="C243" s="4">
-        <v>5.81</v>
+        <v>1.83</v>
       </c>
       <c r="D243" s="4">
-        <v>5.8</v>
+        <v>1.83</v>
       </c>
       <c r="E243" s="4">
-        <v>5.81</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>543</v>
+        <v>1.83</v>
+      </c>
+      <c r="F243" s="4">
+        <v>0</v>
+      </c>
+      <c r="G243" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B244" s="4">
+        <v>11</v>
+      </c>
+      <c r="C244" s="4">
+        <v>11.06</v>
+      </c>
+      <c r="D244" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="E244" s="4">
+        <v>11</v>
+      </c>
+      <c r="F244" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B244" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="C244" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="D244" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="E244" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="F244" s="4">
-        <v>0</v>
-      </c>
-      <c r="G244" s="4">
-        <v>0</v>
+      <c r="G244" s="4" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B245" s="4">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="C245" s="4">
-        <v>11.06</v>
+        <v>14.5</v>
       </c>
       <c r="D245" s="4">
-        <v>10.3</v>
+        <v>14.5</v>
       </c>
       <c r="E245" s="4">
-        <v>11</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>547</v>
+        <v>14.5</v>
+      </c>
+      <c r="F245" s="4">
+        <v>0</v>
+      </c>
+      <c r="G245" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B246" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="C246" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="D246" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="E246" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B246" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="C246" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="D246" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="E246" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="F246" s="4">
-        <v>0</v>
-      </c>
-      <c r="G246" s="4">
-        <v>0</v>
+      <c r="G246" s="4" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B247" s="4">
-        <v>2.65</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C247" s="4">
-        <v>2.68</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D247" s="4">
-        <v>2.6</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E247" s="4">
-        <v>2.62</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>551</v>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F247" s="4">
+        <v>0</v>
+      </c>
+      <c r="G247" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B248" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="C248" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="D248" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="E248" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G248" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="B248" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C248" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="D248" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E248" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F248" s="4">
-        <v>0</v>
-      </c>
-      <c r="G248" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8563,111 +8557,111 @@
         <v>553</v>
       </c>
       <c r="B249" s="4">
-        <v>4.7</v>
+        <v>36.1</v>
       </c>
       <c r="C249" s="4">
-        <v>4.74</v>
+        <v>36.1</v>
       </c>
       <c r="D249" s="4">
-        <v>4.7</v>
+        <v>35.85</v>
       </c>
       <c r="E249" s="4">
-        <v>4.74</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>201</v>
+        <v>554</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B250" s="4">
-        <v>36.1</v>
+        <v>0.39</v>
       </c>
       <c r="C250" s="4">
-        <v>36.1</v>
+        <v>0.41</v>
       </c>
       <c r="D250" s="4">
-        <v>35.85</v>
+        <v>0.38</v>
       </c>
       <c r="E250" s="4">
-        <v>36.049999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B251" s="4">
-        <v>0.39</v>
+        <v>1.4</v>
       </c>
       <c r="C251" s="4">
-        <v>0.41</v>
+        <v>1.4</v>
       </c>
       <c r="D251" s="4">
-        <v>0.38</v>
+        <v>1.4</v>
       </c>
       <c r="E251" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>560</v>
+        <v>1.4</v>
+      </c>
+      <c r="F251" s="4">
+        <v>0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B252" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="C252" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="E252" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="F252" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B252" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="C252" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="D252" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E252" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="F252" s="4">
-        <v>0</v>
-      </c>
-      <c r="G252" s="4">
-        <v>0</v>
+      <c r="G252" s="4" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B253" s="4">
-        <v>0.37</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="C253" s="4">
-        <v>0.37</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="D253" s="4">
-        <v>0.37</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="E253" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>563</v>
+        <v>19.059999999999999</v>
+      </c>
+      <c r="F253" s="4">
+        <v>700</v>
       </c>
       <c r="G253" s="4" t="s">
         <v>564</v>
@@ -8678,22 +8672,22 @@
         <v>565</v>
       </c>
       <c r="B254" s="4">
-        <v>19.059999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C254" s="4">
-        <v>19.059999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D254" s="4">
-        <v>19.059999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="E254" s="4">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="F254" s="4">
-        <v>700</v>
+        <v>0.92</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8701,65 +8695,65 @@
         <v>567</v>
       </c>
       <c r="B255" s="4">
-        <v>0.93</v>
+        <v>8.25</v>
       </c>
       <c r="C255" s="4">
-        <v>0.94</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D255" s="4">
-        <v>0.91</v>
+        <v>8.25</v>
       </c>
       <c r="E255" s="4">
-        <v>0.92</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>568</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B256" s="4">
-        <v>8.25</v>
+        <v>0.52</v>
       </c>
       <c r="C256" s="4">
-        <v>8.3000000000000007</v>
+        <v>0.54</v>
       </c>
       <c r="D256" s="4">
-        <v>8.25</v>
+        <v>0.51</v>
       </c>
       <c r="E256" s="4">
-        <v>8.2799999999999994</v>
+        <v>0.53</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B257" s="4">
-        <v>0.52</v>
+        <v>5.35</v>
       </c>
       <c r="C257" s="4">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="D257" s="4">
-        <v>0.51</v>
+        <v>5.2</v>
       </c>
       <c r="E257" s="4">
-        <v>0.53</v>
+        <v>5.2</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>573</v>
+        <v>133</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>574</v>
@@ -8770,68 +8764,68 @@
         <v>575</v>
       </c>
       <c r="B258" s="4">
-        <v>5.35</v>
+        <v>19.62</v>
       </c>
       <c r="C258" s="4">
-        <v>5.35</v>
+        <v>19.86</v>
       </c>
       <c r="D258" s="4">
-        <v>5.2</v>
+        <v>19.62</v>
       </c>
       <c r="E258" s="4">
-        <v>5.2</v>
+        <v>19.7</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>133</v>
+        <v>576</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B259" s="4">
-        <v>19.62</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C259" s="4">
-        <v>19.86</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D259" s="4">
-        <v>19.62</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E259" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>579</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F259" s="4">
+        <v>0</v>
+      </c>
+      <c r="G259" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B260" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C260" s="4">
+        <v>8.44</v>
+      </c>
+      <c r="D260" s="4">
+        <v>8.09</v>
+      </c>
+      <c r="E260" s="4">
+        <v>8.43</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G260" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="B260" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C260" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D260" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E260" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F260" s="4">
-        <v>0</v>
-      </c>
-      <c r="G260" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -8839,65 +8833,65 @@
         <v>581</v>
       </c>
       <c r="B261" s="4">
-        <v>8.1300000000000008</v>
+        <v>100.4</v>
       </c>
       <c r="C261" s="4">
-        <v>8.44</v>
+        <v>100.4</v>
       </c>
       <c r="D261" s="4">
-        <v>8.09</v>
+        <v>100.4</v>
       </c>
       <c r="E261" s="4">
-        <v>8.43</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G261" s="4" t="s">
-        <v>582</v>
+        <v>100.4</v>
+      </c>
+      <c r="F261" s="4">
+        <v>0</v>
+      </c>
+      <c r="G261" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B262" s="4">
+        <v>62</v>
+      </c>
+      <c r="C262" s="4">
+        <v>62</v>
+      </c>
+      <c r="D262" s="4">
+        <v>61.2</v>
+      </c>
+      <c r="E262" s="4">
+        <v>62</v>
+      </c>
+      <c r="F262" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B262" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="C262" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="D262" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="E262" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="F262" s="4">
-        <v>0</v>
-      </c>
-      <c r="G262" s="4">
-        <v>0</v>
+      <c r="G262" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B263" s="4">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="C263" s="4">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="D263" s="4">
-        <v>61.2</v>
+        <v>386</v>
       </c>
       <c r="E263" s="4">
-        <v>62</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>585</v>
+        <v>386</v>
+      </c>
+      <c r="F263" s="4">
+        <v>450</v>
       </c>
       <c r="G263" s="4" t="s">
         <v>586</v>
@@ -8908,39 +8902,39 @@
         <v>587</v>
       </c>
       <c r="B264" s="4">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="C264" s="4">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="D264" s="4">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="E264" s="4">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="F264" s="4">
-        <v>450</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>588</v>
+        <v>0</v>
+      </c>
+      <c r="G264" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B265" s="4">
-        <v>100</v>
+        <v>7.3</v>
       </c>
       <c r="C265" s="4">
-        <v>100</v>
+        <v>7.3</v>
       </c>
       <c r="D265" s="4">
-        <v>100</v>
+        <v>7.3</v>
       </c>
       <c r="E265" s="4">
-        <v>100</v>
+        <v>7.3</v>
       </c>
       <c r="F265" s="4">
         <v>0</v>
@@ -8951,111 +8945,111 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B266" s="4">
+        <v>5.27</v>
+      </c>
+      <c r="C266" s="4">
+        <v>5.27</v>
+      </c>
+      <c r="D266" s="4">
+        <v>5.27</v>
+      </c>
+      <c r="E266" s="4">
+        <v>5.27</v>
+      </c>
+      <c r="F266" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B266" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="C266" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="D266" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="E266" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="F266" s="4">
-        <v>0</v>
-      </c>
-      <c r="G266" s="4">
-        <v>0</v>
+      <c r="G266" s="4" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B267" s="4">
-        <v>5.27</v>
+        <v>6.38</v>
       </c>
       <c r="C267" s="4">
-        <v>5.27</v>
+        <v>6.38</v>
       </c>
       <c r="D267" s="4">
-        <v>5.27</v>
+        <v>6.38</v>
       </c>
       <c r="E267" s="4">
-        <v>5.27</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="G267" s="4" t="s">
-        <v>593</v>
+        <v>6.38</v>
+      </c>
+      <c r="F267" s="4">
+        <v>0</v>
+      </c>
+      <c r="G267" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B268" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="C268" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="D268" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E268" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F268" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B268" s="4">
-        <v>6.38</v>
-      </c>
-      <c r="C268" s="4">
-        <v>6.38</v>
-      </c>
-      <c r="D268" s="4">
-        <v>6.38</v>
-      </c>
-      <c r="E268" s="4">
-        <v>6.38</v>
-      </c>
-      <c r="F268" s="4">
-        <v>0</v>
-      </c>
-      <c r="G268" s="4">
-        <v>0</v>
+      <c r="G268" s="4" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B269" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="C269" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="D269" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E269" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F269" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="G269" s="4" t="s">
-        <v>597</v>
+      <c r="B269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F269" s="4">
+        <v>0</v>
+      </c>
+      <c r="G269" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B270" s="5">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="C270" s="5">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="D270" s="5">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="E270" s="5">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="F270" s="4">
         <v>0</v>
@@ -9066,25 +9060,25 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B271" s="5">
+        <v>1020</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D271" s="5">
+        <v>1020</v>
+      </c>
+      <c r="E271" s="5">
+        <v>1020</v>
+      </c>
+      <c r="F271" s="4">
+        <v>500</v>
+      </c>
+      <c r="G271" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="B271" s="5">
-        <v>1027</v>
-      </c>
-      <c r="C271" s="5">
-        <v>1027</v>
-      </c>
-      <c r="D271" s="5">
-        <v>1027</v>
-      </c>
-      <c r="E271" s="5">
-        <v>1027</v>
-      </c>
-      <c r="F271" s="4">
-        <v>0</v>
-      </c>
-      <c r="G271" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -9092,10 +9086,10 @@
         <v>600</v>
       </c>
       <c r="B272" s="5">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C272" s="5">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="D272" s="5">
         <v>1020</v>
@@ -9103,31 +9097,31 @@
       <c r="E272" s="5">
         <v>1020</v>
       </c>
-      <c r="F272" s="4">
-        <v>500</v>
+      <c r="F272" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B273" s="5">
-        <v>1025</v>
-      </c>
-      <c r="C273" s="5">
-        <v>1025</v>
-      </c>
-      <c r="D273" s="5">
-        <v>1020</v>
-      </c>
-      <c r="E273" s="5">
-        <v>1020</v>
+        <v>603</v>
+      </c>
+      <c r="B273" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C273" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D273" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E273" s="4">
+        <v>2.1</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>603</v>
+        <v>255</v>
       </c>
       <c r="G273" s="4" t="s">
         <v>604</v>
@@ -9138,19 +9132,19 @@
         <v>605</v>
       </c>
       <c r="B274" s="4">
-        <v>2.0099999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="C274" s="4">
-        <v>2.1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D274" s="4">
-        <v>2.0099999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="E274" s="4">
-        <v>2.1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>255</v>
+        <v>529</v>
       </c>
       <c r="G274" s="4" t="s">
         <v>606</v>
@@ -9161,19 +9155,19 @@
         <v>607</v>
       </c>
       <c r="B275" s="4">
-        <v>2.06</v>
+        <v>57.4</v>
       </c>
       <c r="C275" s="4">
-        <v>2.0699999999999998</v>
+        <v>57.4</v>
       </c>
       <c r="D275" s="4">
-        <v>2.06</v>
+        <v>56.6</v>
       </c>
       <c r="E275" s="4">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>531</v>
+        <v>56.6</v>
+      </c>
+      <c r="F275" s="4">
+        <v>800</v>
       </c>
       <c r="G275" s="4" t="s">
         <v>608</v>
@@ -9184,62 +9178,62 @@
         <v>609</v>
       </c>
       <c r="B276" s="4">
-        <v>57.4</v>
+        <v>167.1</v>
       </c>
       <c r="C276" s="4">
-        <v>57.4</v>
+        <v>168.5</v>
       </c>
       <c r="D276" s="4">
-        <v>56.6</v>
+        <v>167.1</v>
       </c>
       <c r="E276" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="F276" s="4">
-        <v>800</v>
+        <v>168.4</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B277" s="4">
-        <v>167.1</v>
+        <v>119</v>
       </c>
       <c r="C277" s="4">
-        <v>168.5</v>
+        <v>119</v>
       </c>
       <c r="D277" s="4">
-        <v>167.1</v>
+        <v>119</v>
       </c>
       <c r="E277" s="4">
-        <v>168.4</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>613</v>
+        <v>119</v>
+      </c>
+      <c r="F277" s="4">
+        <v>0</v>
+      </c>
+      <c r="G277" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B278" s="4">
-        <v>119</v>
+        <v>0.33</v>
       </c>
       <c r="C278" s="4">
-        <v>119</v>
+        <v>0.33</v>
       </c>
       <c r="D278" s="4">
-        <v>119</v>
+        <v>0.33</v>
       </c>
       <c r="E278" s="4">
-        <v>119</v>
+        <v>0.33</v>
       </c>
       <c r="F278" s="4">
         <v>0</v>
@@ -9250,114 +9244,114 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B279" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="C279" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="D279" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="E279" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B279" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="C279" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="D279" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="E279" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F279" s="4">
-        <v>0</v>
-      </c>
-      <c r="G279" s="4">
-        <v>0</v>
+      <c r="G279" s="4" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B280" s="4">
-        <v>3.19</v>
+        <v>6.74</v>
       </c>
       <c r="C280" s="4">
-        <v>3.21</v>
+        <v>6.74</v>
       </c>
       <c r="D280" s="4">
-        <v>3.15</v>
+        <v>6.52</v>
       </c>
       <c r="E280" s="4">
-        <v>3.17</v>
+        <v>6.7</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B281" s="4">
-        <v>6.74</v>
+        <v>22.55</v>
       </c>
       <c r="C281" s="4">
-        <v>6.74</v>
+        <v>22.8</v>
       </c>
       <c r="D281" s="4">
-        <v>6.52</v>
+        <v>22.55</v>
       </c>
       <c r="E281" s="4">
-        <v>6.7</v>
+        <v>22.6</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B282" s="4">
-        <v>22.55</v>
+        <v>0.47</v>
       </c>
       <c r="C282" s="4">
-        <v>22.8</v>
+        <v>0.5</v>
       </c>
       <c r="D282" s="4">
-        <v>22.55</v>
+        <v>0.47</v>
       </c>
       <c r="E282" s="4">
-        <v>22.6</v>
+        <v>0.5</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B283" s="4">
-        <v>0.47</v>
+        <v>6.1</v>
       </c>
       <c r="C283" s="4">
-        <v>0.5</v>
+        <v>6.12</v>
       </c>
       <c r="D283" s="4">
-        <v>0.47</v>
+        <v>6.03</v>
       </c>
       <c r="E283" s="4">
-        <v>0.5</v>
+        <v>6.05</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>626</v>
+        <v>197</v>
       </c>
       <c r="G283" s="4" t="s">
         <v>627</v>
@@ -9368,367 +9362,367 @@
         <v>628</v>
       </c>
       <c r="B284" s="4">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="C284" s="4">
-        <v>6.12</v>
+        <v>3.1</v>
       </c>
       <c r="D284" s="4">
-        <v>6.03</v>
+        <v>3.1</v>
       </c>
       <c r="E284" s="4">
-        <v>6.05</v>
-      </c>
-      <c r="F284" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>629</v>
+        <v>3.1</v>
+      </c>
+      <c r="F284" s="4">
+        <v>0</v>
+      </c>
+      <c r="G284" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B285" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C285" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D285" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E285" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F285" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B285" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="C285" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="D285" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="E285" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="F285" s="4">
-        <v>0</v>
-      </c>
-      <c r="G285" s="4">
-        <v>0</v>
+      <c r="G285" s="4" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B286" s="4">
-        <v>3.6</v>
+        <v>14.7</v>
       </c>
       <c r="C286" s="4">
-        <v>3.7</v>
+        <v>14.82</v>
       </c>
       <c r="D286" s="4">
-        <v>3.6</v>
+        <v>14.62</v>
       </c>
       <c r="E286" s="4">
-        <v>3.7</v>
+        <v>14.82</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B287" s="4">
-        <v>14.7</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="C287" s="4">
-        <v>14.82</v>
+        <v>0.23</v>
       </c>
       <c r="D287" s="4">
-        <v>14.62</v>
+        <v>0.22</v>
       </c>
       <c r="E287" s="4">
-        <v>14.82</v>
+        <v>0.22</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B288" s="4">
-        <v>0.22900000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="C288" s="4">
-        <v>0.23</v>
+        <v>1.38</v>
       </c>
       <c r="D288" s="4">
-        <v>0.22</v>
+        <v>1.38</v>
       </c>
       <c r="E288" s="4">
-        <v>0.22</v>
+        <v>1.38</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B289" s="4">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="C289" s="4">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="D289" s="4">
-        <v>1.38</v>
+        <v>0.81</v>
       </c>
       <c r="E289" s="4">
-        <v>1.38</v>
+        <v>0.81</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B290" s="4">
-        <v>0.82</v>
+        <v>58.2</v>
       </c>
       <c r="C290" s="4">
-        <v>0.82</v>
+        <v>58.4</v>
       </c>
       <c r="D290" s="4">
-        <v>0.81</v>
+        <v>57.5</v>
       </c>
       <c r="E290" s="4">
-        <v>0.81</v>
+        <v>58</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B291" s="4">
-        <v>58.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C291" s="4">
-        <v>58.4</v>
+        <v>4.75</v>
       </c>
       <c r="D291" s="4">
-        <v>57.5</v>
+        <v>4.45</v>
       </c>
       <c r="E291" s="4">
-        <v>58</v>
+        <v>4.55</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B292" s="4">
-        <v>4.5999999999999996</v>
+        <v>35.1</v>
       </c>
       <c r="C292" s="4">
-        <v>4.75</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D292" s="4">
-        <v>4.45</v>
+        <v>34.65</v>
       </c>
       <c r="E292" s="4">
-        <v>4.55</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B293" s="4">
-        <v>35.1</v>
+        <v>96</v>
       </c>
       <c r="C293" s="4">
-        <v>35.299999999999997</v>
+        <v>96.35</v>
       </c>
       <c r="D293" s="4">
-        <v>34.65</v>
+        <v>93.3</v>
       </c>
       <c r="E293" s="4">
-        <v>34.950000000000003</v>
+        <v>94</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B294" s="4">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C294" s="4">
-        <v>96.35</v>
+        <v>79</v>
       </c>
       <c r="D294" s="4">
-        <v>93.3</v>
+        <v>78</v>
       </c>
       <c r="E294" s="4">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B295" s="4">
-        <v>78</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C295" s="4">
-        <v>79</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D295" s="4">
-        <v>78</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E295" s="4">
-        <v>79</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B296" s="4">
-        <v>8.4000000000000005E-2</v>
+        <v>1.34</v>
       </c>
       <c r="C296" s="4">
-        <v>8.4000000000000005E-2</v>
+        <v>1.34</v>
       </c>
       <c r="D296" s="4">
-        <v>7.8E-2</v>
+        <v>1.34</v>
       </c>
       <c r="E296" s="4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>663</v>
+        <v>1.34</v>
+      </c>
+      <c r="F296" s="4">
+        <v>0</v>
+      </c>
+      <c r="G296" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B297" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C297" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D297" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E297" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F297" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B297" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="C297" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="D297" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="E297" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="F297" s="4">
-        <v>0</v>
-      </c>
-      <c r="G297" s="4">
-        <v>0</v>
+      <c r="G297" s="4" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B298" s="4">
-        <v>0.88</v>
+        <v>11.98</v>
       </c>
       <c r="C298" s="4">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="D298" s="4">
-        <v>0.88</v>
+        <v>11.92</v>
       </c>
       <c r="E298" s="4">
-        <v>0.9</v>
+        <v>11.92</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B299" s="4">
-        <v>11.98</v>
+        <v>17.3</v>
       </c>
       <c r="C299" s="4">
-        <v>12</v>
+        <v>17.54</v>
       </c>
       <c r="D299" s="4">
-        <v>11.92</v>
+        <v>17</v>
       </c>
       <c r="E299" s="4">
-        <v>11.92</v>
+        <v>17.52</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>670</v>
+        <v>54</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -9736,154 +9730,154 @@
         <v>671</v>
       </c>
       <c r="B300" s="4">
-        <v>17.3</v>
+        <v>2.58</v>
       </c>
       <c r="C300" s="4">
-        <v>17.54</v>
+        <v>2.59</v>
       </c>
       <c r="D300" s="4">
-        <v>17</v>
+        <v>2.57</v>
       </c>
       <c r="E300" s="4">
-        <v>17.52</v>
+        <v>2.57</v>
       </c>
       <c r="F300" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G300" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="G300" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B301" s="4">
-        <v>2.58</v>
-      </c>
-      <c r="C301" s="4">
-        <v>2.59</v>
-      </c>
-      <c r="D301" s="4">
-        <v>2.57</v>
-      </c>
-      <c r="E301" s="4">
-        <v>2.57</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>674</v>
+      <c r="B301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E301" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F301" s="4">
+        <v>0</v>
+      </c>
+      <c r="G301" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B302" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="C302" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="D302" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="E302" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="F302" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="B302" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C302" s="5">
-        <v>2500</v>
-      </c>
-      <c r="D302" s="5">
-        <v>2500</v>
-      </c>
-      <c r="E302" s="5">
-        <v>2500</v>
-      </c>
-      <c r="F302" s="4">
-        <v>0</v>
-      </c>
-      <c r="G302" s="4">
-        <v>0</v>
+      <c r="G302" s="4" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B303" s="4">
-        <v>3.17</v>
+        <v>930</v>
       </c>
       <c r="C303" s="4">
-        <v>3.17</v>
+        <v>958.5</v>
       </c>
       <c r="D303" s="4">
-        <v>3.17</v>
+        <v>930</v>
       </c>
       <c r="E303" s="4">
-        <v>3.17</v>
+        <v>950</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B304" s="4">
-        <v>930</v>
+        <v>97</v>
       </c>
       <c r="C304" s="4">
-        <v>958.5</v>
+        <v>97</v>
       </c>
       <c r="D304" s="4">
-        <v>930</v>
+        <v>95.5</v>
       </c>
       <c r="E304" s="4">
-        <v>950</v>
+        <v>96.5</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B305" s="4">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C305" s="4">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D305" s="4">
-        <v>95.5</v>
+        <v>74</v>
       </c>
       <c r="E305" s="4">
-        <v>96.5</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>684</v>
+        <v>74</v>
+      </c>
+      <c r="F305" s="4">
+        <v>0</v>
+      </c>
+      <c r="G305" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B306" s="4">
-        <v>74</v>
+        <v>76.05</v>
       </c>
       <c r="C306" s="4">
-        <v>74</v>
+        <v>76.05</v>
       </c>
       <c r="D306" s="4">
-        <v>74</v>
+        <v>76.05</v>
       </c>
       <c r="E306" s="4">
-        <v>74</v>
+        <v>76.05</v>
       </c>
       <c r="F306" s="4">
         <v>0</v>
@@ -9894,19 +9888,19 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B307" s="4">
-        <v>76.05</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="C307" s="4">
-        <v>76.05</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="D307" s="4">
-        <v>76.05</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="E307" s="4">
-        <v>76.05</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="F307" s="4">
         <v>0</v>
@@ -9917,19 +9911,19 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B308" s="4">
-        <v>76.349999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="C308" s="4">
-        <v>76.349999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="D308" s="4">
-        <v>76.349999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="E308" s="4">
-        <v>76.349999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="F308" s="4">
         <v>0</v>
@@ -9940,19 +9934,19 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B309" s="4">
-        <v>75.3</v>
+        <v>76.55</v>
       </c>
       <c r="C309" s="4">
-        <v>75.3</v>
+        <v>76.55</v>
       </c>
       <c r="D309" s="4">
-        <v>75.3</v>
+        <v>76.55</v>
       </c>
       <c r="E309" s="4">
-        <v>75.3</v>
+        <v>76.55</v>
       </c>
       <c r="F309" s="4">
         <v>0</v>
@@ -9963,65 +9957,65 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B310" s="4">
+        <v>75.05</v>
+      </c>
+      <c r="C310" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="D310" s="4">
+        <v>75.05</v>
+      </c>
+      <c r="E310" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="F310" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B310" s="4">
-        <v>76.55</v>
-      </c>
-      <c r="C310" s="4">
-        <v>76.55</v>
-      </c>
-      <c r="D310" s="4">
-        <v>76.55</v>
-      </c>
-      <c r="E310" s="4">
-        <v>76.55</v>
-      </c>
-      <c r="F310" s="4">
-        <v>0</v>
-      </c>
-      <c r="G310" s="4">
-        <v>0</v>
+      <c r="G310" s="4" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B311" s="4">
-        <v>75.05</v>
+        <v>76.7</v>
       </c>
       <c r="C311" s="4">
-        <v>75.3</v>
+        <v>76.7</v>
       </c>
       <c r="D311" s="4">
-        <v>75.05</v>
+        <v>76.7</v>
       </c>
       <c r="E311" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G311" s="4" t="s">
-        <v>692</v>
+        <v>76.7</v>
+      </c>
+      <c r="F311" s="4">
+        <v>0</v>
+      </c>
+      <c r="G311" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B312" s="4">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="C312" s="4">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="D312" s="4">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="E312" s="4">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="F312" s="4">
         <v>0</v>
@@ -10032,45 +10026,45 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B313" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="C313" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="D313" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="E313" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="F313" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="B313" s="4">
-        <v>75</v>
-      </c>
-      <c r="C313" s="4">
-        <v>75</v>
-      </c>
-      <c r="D313" s="4">
-        <v>75</v>
-      </c>
-      <c r="E313" s="4">
-        <v>75</v>
-      </c>
-      <c r="F313" s="4">
-        <v>0</v>
-      </c>
-      <c r="G313" s="4">
-        <v>0</v>
+      <c r="G313" s="4" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B314" s="4">
-        <v>75.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="C314" s="4">
-        <v>75.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D314" s="4">
-        <v>75.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E314" s="4">
-        <v>75.5</v>
-      </c>
-      <c r="F314" s="4" t="s">
-        <v>696</v>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F314" s="4">
+        <v>300</v>
       </c>
       <c r="G314" s="4" t="s">
         <v>697</v>
@@ -10081,39 +10075,39 @@
         <v>698</v>
       </c>
       <c r="B315" s="4">
-        <v>71.900000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="C315" s="4">
-        <v>71.900000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="D315" s="4">
-        <v>71.900000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="E315" s="4">
-        <v>71.900000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="F315" s="4">
-        <v>300</v>
-      </c>
-      <c r="G315" s="4" t="s">
-        <v>699</v>
+        <v>0</v>
+      </c>
+      <c r="G315" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B316" s="4">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="C316" s="4">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="D316" s="4">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="E316" s="4">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="F316" s="4">
         <v>0</v>
@@ -10124,226 +10118,226 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B317" s="4">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="C317" s="4">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="D317" s="4">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="E317" s="4">
+        <v>38.35</v>
+      </c>
+      <c r="F317" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B317" s="4">
-        <v>74</v>
-      </c>
-      <c r="C317" s="4">
-        <v>74</v>
-      </c>
-      <c r="D317" s="4">
-        <v>74</v>
-      </c>
-      <c r="E317" s="4">
-        <v>74</v>
-      </c>
-      <c r="F317" s="4">
-        <v>0</v>
-      </c>
-      <c r="G317" s="4">
-        <v>0</v>
+      <c r="G317" s="4" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B318" s="4">
-        <v>38.049999999999997</v>
+        <v>0.52</v>
       </c>
       <c r="C318" s="4">
-        <v>38.549999999999997</v>
+        <v>0.53</v>
       </c>
       <c r="D318" s="4">
-        <v>38.049999999999997</v>
+        <v>0.52</v>
       </c>
       <c r="E318" s="4">
-        <v>38.35</v>
+        <v>0.53</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B319" s="4">
-        <v>0.52</v>
+        <v>9.5</v>
       </c>
       <c r="C319" s="4">
-        <v>0.53</v>
+        <v>9.5</v>
       </c>
       <c r="D319" s="4">
-        <v>0.52</v>
+        <v>9.4</v>
       </c>
       <c r="E319" s="4">
-        <v>0.53</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B320" s="4">
-        <v>9.5</v>
+        <v>1.68</v>
       </c>
       <c r="C320" s="4">
-        <v>9.5</v>
+        <v>1.68</v>
       </c>
       <c r="D320" s="4">
-        <v>9.4</v>
+        <v>1.68</v>
       </c>
       <c r="E320" s="4">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="F320" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="G320" s="4" t="s">
-        <v>710</v>
+        <v>1.68</v>
+      </c>
+      <c r="F320" s="4">
+        <v>0</v>
+      </c>
+      <c r="G320" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B321" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="C321" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="D321" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="E321" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="F321" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B321" s="4">
-        <v>1.68</v>
-      </c>
-      <c r="C321" s="4">
-        <v>1.68</v>
-      </c>
-      <c r="D321" s="4">
-        <v>1.68</v>
-      </c>
-      <c r="E321" s="4">
-        <v>1.68</v>
-      </c>
-      <c r="F321" s="4">
-        <v>0</v>
-      </c>
-      <c r="G321" s="4">
-        <v>0</v>
+      <c r="G321" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B322" s="4">
-        <v>1.32</v>
+        <v>0.8</v>
       </c>
       <c r="C322" s="4">
-        <v>1.32</v>
+        <v>0.8</v>
       </c>
       <c r="D322" s="4">
-        <v>1.29</v>
+        <v>0.8</v>
       </c>
       <c r="E322" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="G322" s="4" t="s">
-        <v>714</v>
+        <v>0.8</v>
+      </c>
+      <c r="F322" s="4">
+        <v>0</v>
+      </c>
+      <c r="G322" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B323" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="C323" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="D323" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="E323" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="F323" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="B323" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C323" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="D323" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E323" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F323" s="4">
-        <v>0</v>
-      </c>
-      <c r="G323" s="4">
-        <v>0</v>
+      <c r="G323" s="4" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B324" s="4">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="C324" s="4">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="D324" s="4">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="E324" s="4">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B325" s="4">
-        <v>1.59</v>
+        <v>0.34</v>
       </c>
       <c r="C325" s="4">
-        <v>1.6</v>
+        <v>0.34</v>
       </c>
       <c r="D325" s="4">
-        <v>1.51</v>
+        <v>0.34</v>
       </c>
       <c r="E325" s="4">
-        <v>1.59</v>
-      </c>
-      <c r="F325" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="G325" s="4" t="s">
-        <v>721</v>
+        <v>0.34</v>
+      </c>
+      <c r="F325" s="4">
+        <v>0</v>
+      </c>
+      <c r="G325" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B326" s="4">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="C326" s="4">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="D326" s="4">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="E326" s="4">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="F326" s="4">
         <v>0</v>
@@ -10354,68 +10348,68 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B327" s="4">
+        <v>3</v>
+      </c>
+      <c r="C327" s="4">
+        <v>3</v>
+      </c>
+      <c r="D327" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="E327" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F327" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B327" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C327" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="D327" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="E327" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="F327" s="4">
-        <v>0</v>
-      </c>
-      <c r="G327" s="4">
-        <v>0</v>
+      <c r="G327" s="4" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B328" s="4">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="C328" s="4">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="D328" s="4">
-        <v>2.95</v>
+        <v>1</v>
       </c>
       <c r="E328" s="4">
-        <v>2.95</v>
+        <v>1</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B329" s="4">
-        <v>1.04</v>
+        <v>0.64</v>
       </c>
       <c r="C329" s="4">
-        <v>1.04</v>
+        <v>0.64</v>
       </c>
       <c r="D329" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E329" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>728</v>
+        <v>513</v>
       </c>
       <c r="G329" s="4" t="s">
         <v>729</v>
@@ -10426,42 +10420,42 @@
         <v>730</v>
       </c>
       <c r="B330" s="4">
-        <v>0.64</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="C330" s="4">
-        <v>0.64</v>
+        <v>0.245</v>
       </c>
       <c r="D330" s="4">
-        <v>0.6</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E330" s="4">
-        <v>0.6</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>513</v>
+        <v>731</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B331" s="4">
-        <v>0.23799999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C331" s="4">
-        <v>0.245</v>
+        <v>0.98</v>
       </c>
       <c r="D331" s="4">
-        <v>0.23499999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E331" s="4">
-        <v>0.24399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>733</v>
+        <v>255</v>
       </c>
       <c r="G331" s="4" t="s">
         <v>734</v>
@@ -10472,39 +10466,39 @@
         <v>735</v>
       </c>
       <c r="B332" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C332" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D332" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E332" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="F332" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G332" s="4" t="s">
-        <v>736</v>
+        <v>1</v>
+      </c>
+      <c r="F332" s="4">
+        <v>0</v>
+      </c>
+      <c r="G332" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B333" s="4">
-        <v>1</v>
+        <v>45.6</v>
       </c>
       <c r="C333" s="4">
-        <v>1</v>
+        <v>45.6</v>
       </c>
       <c r="D333" s="4">
-        <v>1</v>
+        <v>45.6</v>
       </c>
       <c r="E333" s="4">
-        <v>1</v>
+        <v>45.6</v>
       </c>
       <c r="F333" s="4">
         <v>0</v>
@@ -10515,25 +10509,25 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B334" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="C334" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="D334" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="E334" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="F334" s="4">
+        <v>20</v>
+      </c>
+      <c r="G334" s="4" t="s">
         <v>738</v>
-      </c>
-      <c r="B334" s="4">
-        <v>45.6</v>
-      </c>
-      <c r="C334" s="4">
-        <v>45.6</v>
-      </c>
-      <c r="D334" s="4">
-        <v>45.6</v>
-      </c>
-      <c r="E334" s="4">
-        <v>45.6</v>
-      </c>
-      <c r="F334" s="4">
-        <v>0</v>
-      </c>
-      <c r="G334" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -10541,22 +10535,22 @@
         <v>739</v>
       </c>
       <c r="B335" s="4">
-        <v>52.6</v>
+        <v>3.15</v>
       </c>
       <c r="C335" s="4">
-        <v>52.6</v>
+        <v>3.17</v>
       </c>
       <c r="D335" s="4">
-        <v>52.6</v>
+        <v>3.1</v>
       </c>
       <c r="E335" s="4">
-        <v>52.6</v>
-      </c>
-      <c r="F335" s="4">
-        <v>20</v>
+        <v>3.13</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>740</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -10564,88 +10558,88 @@
         <v>741</v>
       </c>
       <c r="B336" s="4">
-        <v>3.15</v>
+        <v>0.64</v>
       </c>
       <c r="C336" s="4">
-        <v>3.17</v>
+        <v>0.67</v>
       </c>
       <c r="D336" s="4">
-        <v>3.1</v>
+        <v>0.64</v>
       </c>
       <c r="E336" s="4">
-        <v>3.13</v>
+        <v>0.67</v>
       </c>
       <c r="F336" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G336" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="G336" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B337" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="C337" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="D337" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="E337" s="4">
-        <v>0.67</v>
+      <c r="B337" s="5">
+        <v>1484</v>
+      </c>
+      <c r="C337" s="5">
+        <v>1484</v>
+      </c>
+      <c r="D337" s="5">
+        <v>1432</v>
+      </c>
+      <c r="E337" s="5">
+        <v>1460</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>420</v>
+        <v>744</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B338" s="5">
-        <v>1484</v>
-      </c>
-      <c r="C338" s="5">
-        <v>1484</v>
-      </c>
-      <c r="D338" s="5">
-        <v>1432</v>
-      </c>
-      <c r="E338" s="5">
-        <v>1460</v>
+        <v>746</v>
+      </c>
+      <c r="B338" s="4">
+        <v>48</v>
+      </c>
+      <c r="C338" s="4">
+        <v>48</v>
+      </c>
+      <c r="D338" s="4">
+        <v>48</v>
+      </c>
+      <c r="E338" s="4">
+        <v>48</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B339" s="4">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C339" s="4">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D339" s="4">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E339" s="4">
-        <v>48</v>
-      </c>
-      <c r="F339" s="4" t="s">
-        <v>749</v>
+        <v>100</v>
+      </c>
+      <c r="F339" s="4">
+        <v>190</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>750</v>
@@ -10656,27 +10650,27 @@
         <v>751</v>
       </c>
       <c r="B340" s="4">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C340" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D340" s="4">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E340" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F340" s="4">
-        <v>190</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>752</v>
+        <v>0</v>
+      </c>
+      <c r="G340" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B341" s="4">
         <v>10</v>
@@ -10699,163 +10693,163 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B342" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C342" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D342" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E342" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F342" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="B342" s="4">
-        <v>10</v>
-      </c>
-      <c r="C342" s="4">
-        <v>10</v>
-      </c>
-      <c r="D342" s="4">
-        <v>10</v>
-      </c>
-      <c r="E342" s="4">
-        <v>10</v>
-      </c>
-      <c r="F342" s="4">
-        <v>0</v>
-      </c>
-      <c r="G342" s="4">
-        <v>0</v>
+      <c r="G342" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B343" s="4">
-        <v>0.91</v>
+        <v>91</v>
       </c>
       <c r="C343" s="4">
-        <v>0.92</v>
+        <v>92.35</v>
       </c>
       <c r="D343" s="4">
-        <v>0.9</v>
+        <v>90.5</v>
       </c>
       <c r="E343" s="4">
-        <v>0.9</v>
+        <v>92</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B344" s="4">
-        <v>91</v>
+        <v>0.246</v>
       </c>
       <c r="C344" s="4">
-        <v>92.35</v>
+        <v>0.246</v>
       </c>
       <c r="D344" s="4">
-        <v>90.5</v>
+        <v>0.246</v>
       </c>
       <c r="E344" s="4">
-        <v>92</v>
-      </c>
-      <c r="F344" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="G344" s="4" t="s">
-        <v>760</v>
+        <v>0.246</v>
+      </c>
+      <c r="F344" s="4">
+        <v>0</v>
+      </c>
+      <c r="G344" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B345" s="4">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C345" s="4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D345" s="4">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E345" s="4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F345" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B345" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="C345" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="D345" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="E345" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="F345" s="4">
-        <v>0</v>
-      </c>
-      <c r="G345" s="4">
-        <v>0</v>
+      <c r="G345" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B346" s="4">
-        <v>5.4999999999999997E-3</v>
+        <v>142</v>
       </c>
       <c r="C346" s="4">
-        <v>5.7000000000000002E-3</v>
+        <v>145</v>
       </c>
       <c r="D346" s="4">
-        <v>5.4999999999999997E-3</v>
+        <v>139</v>
       </c>
       <c r="E346" s="4">
-        <v>5.7000000000000002E-3</v>
+        <v>145</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B347" s="4">
-        <v>142</v>
+        <v>0.79</v>
       </c>
       <c r="C347" s="4">
-        <v>145</v>
+        <v>0.79</v>
       </c>
       <c r="D347" s="4">
-        <v>139</v>
+        <v>0.79</v>
       </c>
       <c r="E347" s="4">
-        <v>145</v>
-      </c>
-      <c r="F347" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="G347" s="4" t="s">
-        <v>767</v>
+        <v>0.79</v>
+      </c>
+      <c r="F347" s="4">
+        <v>0</v>
+      </c>
+      <c r="G347" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B348" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C348" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D348" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E348" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G348" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="B348" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="C348" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="D348" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="E348" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="F348" s="4">
-        <v>0</v>
-      </c>
-      <c r="G348" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -10863,274 +10857,251 @@
         <v>769</v>
       </c>
       <c r="B349" s="4">
-        <v>0.66</v>
+        <v>1.8</v>
       </c>
       <c r="C349" s="4">
-        <v>0.66</v>
+        <v>1.85</v>
       </c>
       <c r="D349" s="4">
-        <v>0.63</v>
+        <v>1.79</v>
       </c>
       <c r="E349" s="4">
-        <v>0.65</v>
+        <v>1.84</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>273</v>
+        <v>770</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B350" s="4">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="C350" s="4">
-        <v>1.85</v>
+        <v>3.44</v>
       </c>
       <c r="D350" s="4">
-        <v>1.79</v>
+        <v>3.3</v>
       </c>
       <c r="E350" s="4">
-        <v>1.84</v>
+        <v>3.44</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B351" s="4">
-        <v>3.3</v>
+        <v>1.68</v>
       </c>
       <c r="C351" s="4">
-        <v>3.44</v>
+        <v>1.68</v>
       </c>
       <c r="D351" s="4">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="E351" s="4">
-        <v>3.44</v>
+        <v>1.67</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B352" s="4">
-        <v>1.68</v>
+        <v>1.07</v>
       </c>
       <c r="C352" s="4">
-        <v>1.68</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D352" s="4">
-        <v>1.67</v>
+        <v>1.07</v>
       </c>
       <c r="E352" s="4">
-        <v>1.67</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B353" s="4">
-        <v>1.07</v>
+        <v>12.8</v>
       </c>
       <c r="C353" s="4">
-        <v>1.1399999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="D353" s="4">
-        <v>1.07</v>
+        <v>12.8</v>
       </c>
       <c r="E353" s="4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F353" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="G353" s="4" t="s">
-        <v>782</v>
+        <v>12.8</v>
+      </c>
+      <c r="F353" s="4">
+        <v>0</v>
+      </c>
+      <c r="G353" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B354" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="C354" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="D354" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="E354" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="F354" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="B354" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="C354" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="D354" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="E354" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="F354" s="4">
-        <v>0</v>
-      </c>
-      <c r="G354" s="4">
-        <v>0</v>
+      <c r="G354" s="4" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B355" s="4">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="C355" s="4">
-        <v>2.72</v>
+        <v>0.26</v>
       </c>
       <c r="D355" s="4">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="E355" s="4">
-        <v>2.69</v>
-      </c>
-      <c r="F355" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="G355" s="4" t="s">
-        <v>786</v>
+        <v>0.26</v>
+      </c>
+      <c r="F355" s="4">
+        <v>0</v>
+      </c>
+      <c r="G355" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B356" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C356" s="4">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="D356" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E356" s="4">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="F356" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="B356" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C356" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="D356" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="E356" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="F356" s="4">
-        <v>0</v>
-      </c>
-      <c r="G356" s="4">
-        <v>0</v>
+      <c r="G356" s="4" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B357" s="4">
-        <v>33.700000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="C357" s="4">
-        <v>34.450000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="D357" s="4">
-        <v>33.700000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="E357" s="4">
-        <v>34.049999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B358" s="4">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="C358" s="4">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="D358" s="4">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="E358" s="4">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G358" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B359" s="4">
-        <v>0.26</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C359" s="4">
-        <v>0.26</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D359" s="4">
-        <v>0.26</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E359" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="F359" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="G359" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B360" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="C360" s="4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="D360" s="4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E360" s="4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F360" s="4">
-        <v>0</v>
-      </c>
-      <c r="G360" s="4">
+      <c r="F359" s="4">
+        <v>0</v>
+      </c>
+      <c r="G359" s="4">
         <v>0</v>
       </c>
     </row>
